--- a/Support data/Photovoltaic.xlsx
+++ b/Support data/Photovoltaic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicog\Desktop\Nicolò\GitHub\GreenTechs\Support data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CC4727-BB14-40AE-8E71-62B66D05C17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DD1C44-A2B2-492D-B471-2488863D3D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47895" yWindow="0" windowWidth="19410" windowHeight="20985" firstSheet="4" activeTab="6" xr2:uid="{0F32B4F2-E946-4D6A-913D-A2BCD7358446}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="19410" windowHeight="20985" firstSheet="1" activeTab="5" xr2:uid="{0F32B4F2-E946-4D6A-913D-A2BCD7358446}"/>
   </bookViews>
   <sheets>
     <sheet name="_Database levels" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4480" uniqueCount="1593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4498" uniqueCount="1599">
   <si>
     <t>Scenario</t>
   </si>
@@ -4804,12 +4804,6 @@
     <t>Metal grid layer (Aluminium)</t>
   </si>
   <si>
-    <t>Construction</t>
-  </si>
-  <si>
-    <t>Consultancy, Land rent and Other financial costs</t>
-  </si>
-  <si>
     <t>Production of photovoltaic plants</t>
   </si>
   <si>
@@ -4823,14 +4817,41 @@
   </si>
   <si>
     <t>Industry margins</t>
+  </si>
+  <si>
+    <t>Value Added</t>
+  </si>
+  <si>
+    <t>Consultancy, Land rent and Other financial costs - financing</t>
+  </si>
+  <si>
+    <t>Consultancy, Land rent and Other financial costs - incentive</t>
+  </si>
+  <si>
+    <t>Consultancy, Land rent and Other financial costs - monitoring</t>
+  </si>
+  <si>
+    <t>Consultancy, Land rent and Other financial costs - safety</t>
+  </si>
+  <si>
+    <t>Consultancy, Land rent and Other financial costs - system design</t>
+  </si>
+  <si>
+    <t>Construction - assembly</t>
+  </si>
+  <si>
+    <t>Construction - mounting</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000%"/>
+    <numFmt numFmtId="165" formatCode="0.0000000000000000%"/>
+    <numFmt numFmtId="166" formatCode="0.00000000000000000%"/>
+    <numFmt numFmtId="167" formatCode="0.000000%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -4901,7 +4922,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4917,9 +4938,13 @@
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -27042,9 +27067,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65393C0B-0C58-4933-9265-C2BD0E1A2DE5}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -27138,7 +27165,7 @@
         <v>1523</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="C6" s="10">
         <f>85.1380042462845%*6.79261609460628%</f>
@@ -27150,6 +27177,9 @@
       <c r="E6" s="9" t="s">
         <v>22</v>
       </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C9" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27158,9 +27188,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB86A8D-087F-40D1-B725-C3E6D23E7AC5}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D7:D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -27388,15 +27420,21 @@
         <v>1536</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>0.37142857142857144</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F12" s="6"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
@@ -27406,21 +27444,15 @@
         <v>1536</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="D13" s="7">
-        <v>5.5201698513800433E-2</v>
+        <v>0.19999999999999998</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
@@ -27430,51 +27462,35 @@
         <v>1536</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1539</v>
+        <v>1542</v>
       </c>
       <c r="D14" s="7">
-        <v>2.9723991507430998E-2</v>
+        <v>0.4285714285714286</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>12</v>
+        <v>1578</v>
       </c>
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>1536</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>1542</v>
-      </c>
-      <c r="D15" s="7">
-        <v>6.369426751592358E-2</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>1578</v>
-      </c>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>1592</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="A15" s="4" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>1519</v>
       </c>
-      <c r="D16" s="7">
-        <v>0.85138004246284504</v>
-      </c>
-      <c r="E16" s="6" t="s">
+      <c r="D15" s="8">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="6"/>
+      <c r="F15" s="4" t="s">
+        <v>1591</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -27484,9 +27500,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD44137B-885C-493B-A830-0D1C3B3D3991}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -27580,7 +27598,7 @@
         <v>1527</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1587</v>
+        <v>1594</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
@@ -27598,7 +27616,7 @@
         <v>1528</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1586</v>
+        <v>1598</v>
       </c>
       <c r="D6" s="7">
         <v>1</v>
@@ -27616,7 +27634,7 @@
         <v>1529</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1587</v>
+        <v>1595</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
@@ -27634,7 +27652,7 @@
         <v>1516</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>1586</v>
+        <v>1597</v>
       </c>
       <c r="D8" s="7">
         <v>1</v>
@@ -27789,38 +27807,38 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>1537</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>1587</v>
-      </c>
-      <c r="D17" s="5">
+      <c r="A17" s="6" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D17" s="7">
         <v>1</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4" t="s">
+      <c r="E17" s="6"/>
+      <c r="F17" s="6" t="s">
         <v>1579</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>1538</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>1587</v>
-      </c>
-      <c r="D18" s="7">
+      <c r="A18" s="4" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D18" s="5">
         <v>1</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6" t="s">
+      <c r="E18" s="4"/>
+      <c r="F18" s="4" t="s">
         <v>1579</v>
       </c>
     </row>
@@ -27829,10 +27847,10 @@
         <v>1523</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1539</v>
+        <v>1542</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1587</v>
+        <v>1596</v>
       </c>
       <c r="D19" s="5">
         <v>1</v>
@@ -27857,24 +27875,6 @@
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6" t="s">
-        <v>1579</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>1541</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>1587</v>
-      </c>
-      <c r="D21" s="5">
-        <v>1</v>
-      </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4" t="s">
         <v>1579</v>
       </c>
     </row>
@@ -27885,9 +27885,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF714429-353E-4071-AE36-83A3774B3E41}">
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -27895,14 +27897,14 @@
     <col min="2" max="2" width="70.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="58.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.88671875" customWidth="1"/>
     <col min="9" max="9" width="47" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -27925,7 +27927,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1523</v>
       </c>
@@ -27938,15 +27940,16 @@
       <c r="D2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="16">
         <v>1</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
         <v>1580</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1523</v>
       </c>
@@ -27959,7 +27962,7 @@
       <c r="D3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="17">
         <v>1</v>
       </c>
       <c r="F3" s="6"/>
@@ -27967,7 +27970,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>1523</v>
       </c>
@@ -27980,7 +27983,7 @@
       <c r="D4" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="16">
         <v>1</v>
       </c>
       <c r="F4" s="4"/>
@@ -27988,12 +27991,12 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>1523</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1587</v>
+        <v>1594</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>29</v>
@@ -28001,7 +28004,7 @@
       <c r="D5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="17">
         <v>1</v>
       </c>
       <c r="F5" s="6"/>
@@ -28009,20 +28012,20 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>1523</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1586</v>
+        <v>1595</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="E6" s="11">
+        <v>28</v>
+      </c>
+      <c r="E6" s="16">
         <v>1</v>
       </c>
       <c r="F6" s="4"/>
@@ -28030,41 +28033,41 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>1517</v>
-      </c>
-      <c r="C7" s="6" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="12">
+      <c r="D7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="16">
         <v>1</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>1523</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1518</v>
+        <v>1592</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="11">
+        <v>28</v>
+      </c>
+      <c r="E8" s="16">
         <v>1</v>
       </c>
       <c r="F8" s="4"/>
@@ -28072,20 +28075,20 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>1523</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>1534</v>
+        <v>1593</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="12">
+        <v>28</v>
+      </c>
+      <c r="E9" s="17">
         <v>1</v>
       </c>
       <c r="F9" s="6"/>
@@ -28093,112 +28096,112 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>1523</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1581</v>
+        <v>1597</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="E10" s="11">
-        <v>0.1131428571428571</v>
+        <v>487</v>
+      </c>
+      <c r="E10" s="16">
+        <v>1</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>1523</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1581</v>
+        <v>1598</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="E11" s="11">
-        <v>1.142857142857143E-2</v>
+        <v>487</v>
+      </c>
+      <c r="E11" s="16">
+        <v>1</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>1581</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="E12" s="11">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="17">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>1523</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1581</v>
+        <v>1518</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="E13" s="11">
-        <v>1.0285714285714289E-2</v>
+        <v>25</v>
+      </c>
+      <c r="E13" s="16">
+        <v>1</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>1581</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="E14" s="11">
-        <v>0.1246251373802062</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="17">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>1523</v>
       </c>
@@ -28206,20 +28209,20 @@
         <v>1581</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="E15" s="11">
-        <v>0.10700462266000051</v>
+        <v>601</v>
+      </c>
+      <c r="E15" s="16">
+        <v>0.1131428571428571</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>1523</v>
       </c>
@@ -28227,13 +28230,13 @@
         <v>1581</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="E16" s="11">
-        <v>2.2878165921096413E-2</v>
+        <v>601</v>
+      </c>
+      <c r="E16" s="16">
+        <v>1.142857142857143E-2</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
@@ -28248,13 +28251,13 @@
         <v>1581</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="E17" s="11">
-        <v>1.0006441606451873E-2</v>
+        <v>601</v>
+      </c>
+      <c r="E17" s="16">
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
@@ -28269,13 +28272,13 @@
         <v>1581</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="E18" s="11">
-        <v>2.7776046069977547E-4</v>
+        <v>601</v>
+      </c>
+      <c r="E18" s="16">
+        <v>1.0285714285714289E-2</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
@@ -28290,13 +28293,13 @@
         <v>1581</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="E19" s="11">
-        <v>7.9064555015607146E-3</v>
+        <v>421</v>
+      </c>
+      <c r="E19" s="16">
+        <v>0.1246251373802062</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
@@ -28311,13 +28314,13 @@
         <v>1581</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="E20" s="11">
-        <v>7.753256543644167E-4</v>
+        <v>421</v>
+      </c>
+      <c r="E20" s="16">
+        <v>0.10700462266000051</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
@@ -28332,13 +28335,13 @@
         <v>1581</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="E21" s="11">
-        <v>2.1690334402444666E-3</v>
+        <v>421</v>
+      </c>
+      <c r="E21" s="16">
+        <v>2.2878165921096413E-2</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4" t="s">
@@ -28353,13 +28356,13 @@
         <v>1581</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="E22" s="11">
-        <v>5.0739008643389087E-3</v>
+        <v>421</v>
+      </c>
+      <c r="E22" s="16">
+        <v>1.0006441606451873E-2</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
@@ -28374,13 +28377,13 @@
         <v>1581</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="E23" s="11">
-        <v>0.10887123201315706</v>
+        <v>436</v>
+      </c>
+      <c r="E23" s="16">
+        <v>2.7776046069977547E-4</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4" t="s">
@@ -28395,13 +28398,13 @@
         <v>1581</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="E24" s="11">
-        <v>3.2271225195794832E-2</v>
+        <v>436</v>
+      </c>
+      <c r="E24" s="16">
+        <v>7.9064555015607146E-3</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4" t="s">
@@ -28416,13 +28419,13 @@
         <v>1581</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="E25" s="11">
-        <v>1.0964555951515928E-2</v>
+        <v>436</v>
+      </c>
+      <c r="E25" s="16">
+        <v>7.753256543644167E-4</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4" t="s">
@@ -28437,13 +28440,13 @@
         <v>1581</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="E26" s="11">
-        <v>2.6847261888184419E-3</v>
+        <v>436</v>
+      </c>
+      <c r="E26" s="16">
+        <v>2.1690334402444666E-3</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4" t="s">
@@ -28458,13 +28461,13 @@
         <v>1581</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="E27" s="11">
-        <v>2.9999428137120168E-2</v>
+        <v>424</v>
+      </c>
+      <c r="E27" s="16">
+        <v>5.0739008643389087E-3</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
@@ -28479,13 +28482,13 @@
         <v>1581</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="E28" s="11">
-        <v>1.5489575856794736E-3</v>
+        <v>424</v>
+      </c>
+      <c r="E28" s="16">
+        <v>0.10887123201315706</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4" t="s">
@@ -28500,13 +28503,13 @@
         <v>1581</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="E29" s="11">
-        <v>6.6920365315478281E-4</v>
+        <v>424</v>
+      </c>
+      <c r="E29" s="16">
+        <v>3.2271225195794832E-2</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4" t="s">
@@ -28521,13 +28524,13 @@
         <v>1581</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="E30" s="11">
-        <v>7.7299520624990788E-3</v>
+        <v>424</v>
+      </c>
+      <c r="E30" s="16">
+        <v>1.0964555951515928E-2</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4" t="s">
@@ -28542,13 +28545,13 @@
         <v>1581</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="E31" s="11">
-        <v>0.12508245102255178</v>
+        <v>439</v>
+      </c>
+      <c r="E31" s="16">
+        <v>2.6847261888184419E-3</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4" t="s">
@@ -28563,20 +28566,20 @@
         <v>1581</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="E32" s="11">
-        <v>1.7187539456000978E-2</v>
+        <v>439</v>
+      </c>
+      <c r="E32" s="16">
+        <v>2.9999428137120168E-2</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>1523</v>
       </c>
@@ -28584,20 +28587,20 @@
         <v>1581</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="E33" s="11">
-        <v>2.081458975734249E-3</v>
+        <v>439</v>
+      </c>
+      <c r="E33" s="16">
+        <v>1.5489575856794736E-3</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>1523</v>
       </c>
@@ -28605,20 +28608,20 @@
         <v>1581</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="E34" s="11">
-        <v>3.3623838938421309E-2</v>
+        <v>439</v>
+      </c>
+      <c r="E34" s="16">
+        <v>6.6920365315478281E-4</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>1523</v>
       </c>
@@ -28626,20 +28629,20 @@
         <v>1581</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="E35" s="11">
-        <v>8.7533364877256561E-2</v>
+        <v>427</v>
+      </c>
+      <c r="E35" s="16">
+        <v>7.7299520624990788E-3</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>1523</v>
       </c>
@@ -28647,20 +28650,20 @@
         <v>1581</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="E36" s="11">
-        <v>6.1806575804624446E-3</v>
+        <v>427</v>
+      </c>
+      <c r="E36" s="16">
+        <v>0.12508245102255178</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>1523</v>
       </c>
@@ -28668,20 +28671,20 @@
         <v>1581</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="E37" s="11">
-        <v>6.2214603649534059E-3</v>
+        <v>427</v>
+      </c>
+      <c r="E37" s="16">
+        <v>1.7187539456000978E-2</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>1523</v>
       </c>
@@ -28689,20 +28692,20 @@
         <v>1581</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="E38" s="11">
-        <v>3.3542708518473506E-6</v>
+        <v>427</v>
+      </c>
+      <c r="E38" s="16">
+        <v>2.081458975734249E-3</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>1523</v>
       </c>
@@ -28710,20 +28713,21 @@
         <v>1581</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="E39" s="11">
-        <v>2.6652543250670377E-3</v>
+        <v>430</v>
+      </c>
+      <c r="E39" s="16">
+        <v>3.3623838938421309E-2</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4" t="s">
         <v>1580</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I39" s="13"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>1523</v>
       </c>
@@ -28731,20 +28735,20 @@
         <v>1581</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="E40" s="11">
-        <v>3.9671404986613623E-4</v>
+        <v>430</v>
+      </c>
+      <c r="E40" s="16">
+        <v>8.7533364877256561E-2</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>1523</v>
       </c>
@@ -28752,20 +28756,20 @@
         <v>1581</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="E41" s="11">
-        <v>1.5070113987458979E-4</v>
+        <v>430</v>
+      </c>
+      <c r="E41" s="16">
+        <v>6.1806575804624446E-3</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>1523</v>
       </c>
@@ -28773,20 +28777,20 @@
         <v>1581</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="E42" s="11">
-        <v>4.7665745186426106E-3</v>
+        <v>430</v>
+      </c>
+      <c r="E42" s="16">
+        <v>6.2214603649534059E-3</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>1523</v>
       </c>
@@ -28794,20 +28798,20 @@
         <v>1581</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="E43" s="11">
-        <v>1.8575122976479633E-2</v>
+        <v>451</v>
+      </c>
+      <c r="E43" s="16">
+        <v>3.3542708518473506E-6</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>1523</v>
       </c>
@@ -28815,20 +28819,20 @@
         <v>1581</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="E44" s="11">
-        <v>1.7239270834936099E-3</v>
+        <v>451</v>
+      </c>
+      <c r="E44" s="16">
+        <v>2.6652543250670377E-3</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>1523</v>
       </c>
@@ -28836,20 +28840,20 @@
         <v>1581</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="E45" s="11">
-        <v>5.2555230454443685E-4</v>
+        <v>451</v>
+      </c>
+      <c r="E45" s="16">
+        <v>3.9671404986613623E-4</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>1523</v>
       </c>
@@ -28857,20 +28861,20 @@
         <v>1581</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="E46" s="11">
-        <v>9.5801034623777225E-3</v>
+        <v>451</v>
+      </c>
+      <c r="E46" s="16">
+        <v>1.5070113987458979E-4</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>1523</v>
       </c>
@@ -28878,20 +28882,20 @@
         <v>1581</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="E47" s="11">
-        <v>5.6804376171485253E-2</v>
+        <v>442</v>
+      </c>
+      <c r="E47" s="16">
+        <v>4.7665745186426106E-3</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>1523</v>
       </c>
@@ -28899,20 +28903,20 @@
         <v>1581</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="E48" s="11">
-        <v>5.8686546519544861E-3</v>
+        <v>442</v>
+      </c>
+      <c r="E48" s="16">
+        <v>1.8575122976479633E-2</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>1523</v>
       </c>
@@ -28920,20 +28924,20 @@
         <v>1581</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="E49" s="11">
-        <v>6.5160547790301022E-4</v>
+        <v>442</v>
+      </c>
+      <c r="E49" s="16">
+        <v>1.7239270834936099E-3</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>1523</v>
       </c>
@@ -28941,20 +28945,20 @@
         <v>1581</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="E50" s="11">
-        <v>2.790753348736995E-7</v>
+        <v>442</v>
+      </c>
+      <c r="E50" s="16">
+        <v>5.2555230454443685E-4</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>1523</v>
       </c>
@@ -28962,20 +28966,20 @@
         <v>1581</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="E51" s="11">
-        <v>6.7454583442355608E-5</v>
+        <v>433</v>
+      </c>
+      <c r="E51" s="16">
+        <v>9.5801034623777225E-3</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="4" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>1523</v>
       </c>
@@ -28983,20 +28987,20 @@
         <v>1581</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="E52" s="11">
-        <v>0</v>
+        <v>433</v>
+      </c>
+      <c r="E52" s="16">
+        <v>5.6804376171485253E-2</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="4" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>1523</v>
       </c>
@@ -29004,20 +29008,20 @@
         <v>1581</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="E53" s="11">
-        <v>1.4806090893799156E-6</v>
+        <v>433</v>
+      </c>
+      <c r="E53" s="16">
+        <v>5.8686546519544861E-3</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="4" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>1523</v>
       </c>
@@ -29025,20 +29029,20 @@
         <v>1581</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="E54" s="11">
-        <v>2.1515634952089645E-5</v>
+        <v>433</v>
+      </c>
+      <c r="E54" s="16">
+        <v>6.5160547790301022E-4</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>1523</v>
       </c>
@@ -29046,20 +29050,20 @@
         <v>1581</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="E55" s="11">
-        <v>7.5310980192397207E-4</v>
+        <v>448</v>
+      </c>
+      <c r="E55" s="16">
+        <v>2.790753348736995E-7</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="4" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>1523</v>
       </c>
@@ -29067,20 +29071,20 @@
         <v>1581</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="E56" s="11">
-        <v>8.4315780597270411E-5</v>
+        <v>448</v>
+      </c>
+      <c r="E56" s="16">
+        <v>6.7454583442355608E-5</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="4" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>1523</v>
       </c>
@@ -29088,20 +29092,20 @@
         <v>1581</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="E57" s="11">
-        <v>5.8493387387710954E-6</v>
+        <v>448</v>
+      </c>
+      <c r="E57" s="16">
+        <v>0</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="4" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>1523</v>
       </c>
@@ -29109,20 +29113,20 @@
         <v>1581</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="E58" s="11">
-        <v>0</v>
+        <v>448</v>
+      </c>
+      <c r="E58" s="16">
+        <v>1.4806090893799156E-6</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="4" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>1523</v>
       </c>
@@ -29130,20 +29134,20 @@
         <v>1581</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="E59" s="11">
-        <v>9.2141364424069708E-4</v>
+        <v>445</v>
+      </c>
+      <c r="E59" s="16">
+        <v>2.1515634952089645E-5</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>1523</v>
       </c>
@@ -29151,20 +29155,20 @@
         <v>1581</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="E60" s="11">
-        <v>1.0480275497565063E-4</v>
+        <v>445</v>
+      </c>
+      <c r="E60" s="16">
+        <v>7.5310980192397207E-4</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="4" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>1523</v>
       </c>
@@ -29172,304 +29176,299 @@
         <v>1581</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="E61" s="11">
-        <v>1.0379999493795869E-4</v>
+        <v>445</v>
+      </c>
+      <c r="E61" s="16">
+        <v>8.4315780597270411E-5</v>
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="4" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="6" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>1582</v>
-      </c>
-      <c r="C62" s="6" t="s">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="E62" s="16">
+        <v>5.8493387387710954E-6</v>
+      </c>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D62" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="E62" s="12">
-        <v>0.74699999999999989</v>
-      </c>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6" t="s">
+      <c r="D63" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="E63" s="16">
+        <v>0</v>
+      </c>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4" t="s">
         <v>1580</v>
       </c>
-      <c r="I62" s="13"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="6" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>1582</v>
-      </c>
-      <c r="C63" s="6" t="s">
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D63" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="E63" s="12">
-        <v>2.8000000000000008E-2</v>
-      </c>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6" t="s">
+      <c r="D64" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="E64" s="16">
+        <v>9.2141364424069708E-4</v>
+      </c>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4" t="s">
         <v>1580</v>
       </c>
-      <c r="I63" s="13"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="6" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>1582</v>
-      </c>
-      <c r="C64" s="6" t="s">
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D64" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="E64" s="12">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6" t="s">
+      <c r="D65" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="E65" s="16">
+        <v>1.0480275497565063E-4</v>
+      </c>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4" t="s">
         <v>1580</v>
       </c>
-      <c r="I64" s="13"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="6" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>1582</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="E65" s="12">
-        <v>2.4E-2</v>
-      </c>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6" t="s">
-        <v>1580</v>
-      </c>
-      <c r="I65" s="13"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>1523</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E66" s="11">
-        <v>0.747</v>
+        <v>454</v>
+      </c>
+      <c r="E66" s="16">
+        <v>1.0379999493795869E-4</v>
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="4" t="s">
         <v>1580</v>
       </c>
-      <c r="I66" s="13"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>1583</v>
-      </c>
-      <c r="C67" s="4" t="s">
+      <c r="A67" s="6" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="E67" s="17">
+        <v>0.74699999999999989</v>
+      </c>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6" t="s">
+        <v>1580</v>
+      </c>
+      <c r="I67" s="11"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="6" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C68" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D67" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" s="11">
-        <v>2.8000000000000011E-2</v>
-      </c>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4" t="s">
+      <c r="D68" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="E68" s="17">
+        <v>2.8000000000000008E-2</v>
+      </c>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6" t="s">
         <v>1580</v>
       </c>
-      <c r="I67" s="13"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>1583</v>
-      </c>
-      <c r="C68" s="4" t="s">
+      <c r="I68" s="11"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="6" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C69" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D68" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" s="11">
+      <c r="D69" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="E69" s="17">
         <v>0.20100000000000001</v>
       </c>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4" t="s">
+      <c r="F69" s="6"/>
+      <c r="G69" s="6" t="s">
         <v>1580</v>
       </c>
-      <c r="I68" s="13"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>1583</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E69" s="11">
-        <v>2.4000000000000007E-2</v>
-      </c>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4" t="s">
-        <v>1580</v>
-      </c>
-      <c r="I69" s="13"/>
+      <c r="I69" s="11"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>1523</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E70" s="12">
-        <v>0.37349999999999994</v>
+        <v>358</v>
+      </c>
+      <c r="E70" s="17">
+        <v>2.4E-2</v>
       </c>
       <c r="F70" s="6"/>
       <c r="G70" s="6" t="s">
         <v>1580</v>
       </c>
-      <c r="I70" s="13"/>
+      <c r="I70" s="11"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="6" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>1584</v>
-      </c>
-      <c r="C71" s="6" t="s">
+      <c r="A71" s="4" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71" s="16">
+        <v>0.747</v>
+      </c>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4" t="s">
+        <v>1580</v>
+      </c>
+      <c r="I71" s="11"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D71" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E71" s="12">
-        <v>1.4000000000000004E-2</v>
-      </c>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6" t="s">
+      <c r="D72" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72" s="16">
+        <v>2.8000000000000011E-2</v>
+      </c>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4" t="s">
         <v>1580</v>
       </c>
-      <c r="I71" s="13"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="6" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>1584</v>
-      </c>
-      <c r="C72" s="6" t="s">
+      <c r="I72" s="11"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D72" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E72" s="12">
-        <v>0.10050000000000001</v>
-      </c>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6" t="s">
+      <c r="D73" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73" s="16">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4" t="s">
         <v>1580</v>
       </c>
-      <c r="I72" s="13"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="6" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>1584</v>
-      </c>
-      <c r="C73" s="6" t="s">
+      <c r="I73" s="11"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D73" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E73" s="12">
-        <v>1.2E-2</v>
-      </c>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6" t="s">
+      <c r="D74" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74" s="16">
+        <v>2.4000000000000007E-2</v>
+      </c>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4" t="s">
         <v>1580</v>
       </c>
-      <c r="I73" s="13"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="6" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>1584</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E74" s="12">
-        <v>0.37349999999999994</v>
-      </c>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6" t="s">
-        <v>1580</v>
-      </c>
-      <c r="I74" s="13"/>
+      <c r="I74" s="11"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
@@ -29479,19 +29478,19 @@
         <v>1584</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E75" s="12">
-        <v>1.4000000000000004E-2</v>
+        <v>18</v>
+      </c>
+      <c r="E75" s="17">
+        <v>0.37349999999999994</v>
       </c>
       <c r="F75" s="6"/>
       <c r="G75" s="6" t="s">
         <v>1580</v>
       </c>
-      <c r="I75" s="13"/>
+      <c r="I75" s="11"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
@@ -29501,19 +29500,19 @@
         <v>1584</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E76" s="12">
-        <v>0.10050000000000001</v>
+        <v>18</v>
+      </c>
+      <c r="E76" s="17">
+        <v>1.4000000000000004E-2</v>
       </c>
       <c r="F76" s="6"/>
       <c r="G76" s="6" t="s">
         <v>1580</v>
       </c>
-      <c r="I76" s="13"/>
+      <c r="I76" s="11"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
@@ -29523,107 +29522,217 @@
         <v>1584</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E77" s="12">
-        <v>1.2E-2</v>
+        <v>18</v>
+      </c>
+      <c r="E77" s="17">
+        <v>0.10050000000000001</v>
       </c>
       <c r="F77" s="6"/>
       <c r="G77" s="6" t="s">
         <v>1580</v>
       </c>
-      <c r="I77" s="13"/>
+      <c r="I77" s="11"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="4" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B78" s="4" t="s">
+      <c r="A78" s="6" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" s="17">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6" t="s">
+        <v>1580</v>
+      </c>
+      <c r="I78" s="11"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="6" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E79" s="17">
+        <v>0.37349999999999994</v>
+      </c>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6" t="s">
+        <v>1580</v>
+      </c>
+      <c r="I79" s="11"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="6" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E80" s="17">
+        <v>1.4000000000000004E-2</v>
+      </c>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6" t="s">
+        <v>1580</v>
+      </c>
+      <c r="I80" s="11"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="6" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E81" s="17">
+        <v>0.10050000000000001</v>
+      </c>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6" t="s">
+        <v>1580</v>
+      </c>
+      <c r="I81" s="11"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="6" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E82" s="17">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6" t="s">
+        <v>1580</v>
+      </c>
+      <c r="I82" s="14"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>1585</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C83" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D83" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="E78" s="11">
+      <c r="E83" s="16">
         <v>0.12781128001949404</v>
       </c>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4" t="s">
+      <c r="F83" s="4"/>
+      <c r="G83" s="4" t="s">
         <v>1580</v>
       </c>
-      <c r="I78" s="13"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="4" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B79" s="4" t="s">
+      <c r="I83" s="11"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>1585</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C84" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="D84" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="E79" s="11">
+      <c r="E84" s="16">
         <v>0.83369134648065824</v>
       </c>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4" t="s">
+      <c r="F84" s="4"/>
+      <c r="G84" s="4" t="s">
         <v>1580</v>
       </c>
-      <c r="I79" s="13"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B80" s="4" t="s">
+      <c r="I84" s="11"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>1585</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C85" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="D85" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="E80" s="11">
+      <c r="E85" s="16">
         <v>3.4390986993197203E-2</v>
       </c>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4" t="s">
+      <c r="F85" s="4"/>
+      <c r="G85" s="4" t="s">
         <v>1580</v>
       </c>
-      <c r="I80" s="13"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="4" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B81" s="4" t="s">
+      <c r="I85" s="11"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>1585</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C86" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="D86" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="E81" s="11">
+      <c r="E86" s="16">
         <v>4.1063865066504118E-3</v>
       </c>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4" t="s">
+      <c r="F86" s="4"/>
+      <c r="G86" s="4" t="s">
         <v>1580</v>
       </c>
-      <c r="I81" s="13"/>
+      <c r="I86" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29634,13 +29743,13 @@
           <x14:formula1>
             <xm:f>'_Database levels'!$B$2:$B$211</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D81</xm:sqref>
+          <xm:sqref>D2:D86</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{547D4329-6485-4BD8-81A3-E65A0C4E4CE4}">
           <x14:formula1>
             <xm:f>'_Database levels'!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C81</xm:sqref>
+          <xm:sqref>C2:C86</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -29652,8 +29761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E6C6C9B-2EDA-49F9-A91D-DFC94EE3C938}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29700,10 +29809,10 @@
         <v>3.7048340421245961E-2</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -29722,10 +29831,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>1587</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>1589</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>1591</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -29744,10 +29853,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>1587</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>1589</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>1591</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -29766,10 +29875,10 @@
         <v>6.5201917446804855E-3</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>1587</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>1589</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>1591</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -29788,10 +29897,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>1587</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>1589</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>1591</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -29810,10 +29919,10 @@
         <v>3.1358930747190712E-2</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>1587</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>1589</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>1591</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -29832,10 +29941,10 @@
         <v>0.34722392325307005</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>1587</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>1589</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>1591</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -29854,10 +29963,10 @@
         <v>0.26241843937473458</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>1587</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>1589</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>1591</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -29876,10 +29985,10 @@
         <v>0.11659855418187548</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>1587</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>1589</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>1591</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -29898,10 +30007,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>1587</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>1589</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>1591</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -29920,10 +30029,10 @@
         <v>0</v>
       </c>
       <c r="E12" s="4" t="s">
+        <v>1587</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>1589</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>1591</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -29942,10 +30051,10 @@
         <v>0.19883162027720275</v>
       </c>
       <c r="E13" s="4" t="s">
+        <v>1587</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>1589</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>1591</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -29992,7 +30101,7 @@
         <v>1523</v>
       </c>
       <c r="B2" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
     </row>
   </sheetData>

--- a/Support data/Photovoltaic.xlsx
+++ b/Support data/Photovoltaic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicog\Desktop\Nicolò\GitHub\GreenTechs\Support data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DD1C44-A2B2-492D-B471-2488863D3D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702E3FB6-34A0-4821-BEDB-6A56252E1150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="19410" windowHeight="20985" firstSheet="1" activeTab="5" xr2:uid="{0F32B4F2-E946-4D6A-913D-A2BCD7358446}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="5" xr2:uid="{0F32B4F2-E946-4D6A-913D-A2BCD7358446}"/>
   </bookViews>
   <sheets>
     <sheet name="_Database levels" sheetId="4" r:id="rId1"/>
@@ -27888,7 +27888,7 @@
   <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D16" sqref="D16:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28212,7 +28212,7 @@
         <v>30</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>601</v>
+        <v>16</v>
       </c>
       <c r="E15" s="16">
         <v>0.1131428571428571</v>
@@ -28233,7 +28233,7 @@
         <v>29</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>601</v>
+        <v>16</v>
       </c>
       <c r="E16" s="16">
         <v>1.142857142857143E-2</v>
@@ -28254,7 +28254,7 @@
         <v>32</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>601</v>
+        <v>16</v>
       </c>
       <c r="E17" s="16">
         <v>8.0000000000000002E-3</v>
@@ -28275,7 +28275,7 @@
         <v>31</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>601</v>
+        <v>16</v>
       </c>
       <c r="E18" s="16">
         <v>1.0285714285714289E-2</v>

--- a/Support data/Photovoltaic.xlsx
+++ b/Support data/Photovoltaic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\Desktop\UNI\MAGISTRALE\TESI\GitHub\GreenTechs\Support data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10608728_polimi_it/Documents/Documenti/GitHub/GreenTechs/Support data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7124AD0D-0ECF-493D-90FC-3EF7E4D4B1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{7124AD0D-0ECF-493D-90FC-3EF7E4D4B1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5102C2D-3B5E-4C34-B50B-4A3232E56139}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="5" xr2:uid="{0F32B4F2-E946-4D6A-913D-A2BCD7358446}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" activeTab="5" xr2:uid="{0F32B4F2-E946-4D6A-913D-A2BCD7358446}"/>
   </bookViews>
   <sheets>
     <sheet name="_Database levels" sheetId="4" r:id="rId1"/>
@@ -23,17 +23,31 @@
     <sheet name="_Technology to activity" sheetId="8" r:id="rId8"/>
     <sheet name="_References" sheetId="2" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Commodity!$A$1:$F$88</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4411" uniqueCount="1597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4412" uniqueCount="1598">
   <si>
     <t>Scenario</t>
   </si>
@@ -4824,6 +4838,9 @@
   </si>
   <si>
     <t>Construction - mounting</t>
+  </si>
+  <si>
+    <t>Copper</t>
   </si>
 </sst>
 </file>
@@ -4931,7 +4948,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5250,8 +5267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5965D949-E255-4DFF-8B9B-61373D2891CE}">
   <dimension ref="A1:F1106"/>
   <sheetViews>
-    <sheetView topLeftCell="A191" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B204" sqref="B204"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B214" sqref="B214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7523,6 +7540,9 @@
       </c>
     </row>
     <row r="212" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B212" t="s">
+        <v>1597</v>
+      </c>
       <c r="E212" t="s">
         <v>615</v>
       </c>
@@ -27176,7 +27196,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27488,7 +27508,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27835,8 +27855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF714429-353E-4071-AE36-83A3774B3E41}">
   <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27902,7 +27922,7 @@
         <v>29</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>153</v>
+        <v>1597</v>
       </c>
       <c r="E3" s="16">
         <v>0.68589999999999995</v>
@@ -27923,7 +27943,7 @@
       <c r="D4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="17">
         <f>100%-E5</f>
         <v>0.31410000000000005</v>
       </c>
@@ -27940,9 +27960,9 @@
         <v>29</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="E5" s="16">
+        <v>1597</v>
+      </c>
+      <c r="E5" s="17">
         <v>0.68589999999999995</v>
       </c>
       <c r="F5" s="6"/>
@@ -29471,7 +29491,7 @@
           <x14:formula1>
             <xm:f>'_Database levels'!$B$2:$B$211</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D88</xm:sqref>
+          <xm:sqref>D6:D88 D2 D4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{547D4329-6485-4BD8-81A3-E65A0C4E4CE4}">
           <x14:formula1>
